--- a/static/asset/rdk_s100/drobotics_rdk_s100_mcu_port_expansion_board_pinlist_v1p0-eng.xlsx
+++ b/static/asset/rdk_s100/drobotics_rdk_s100_mcu_port_expansion_board_pinlist_v1p0-eng.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xiaoye.zhang\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\需求备份\杨高明-1120-httpshorizonrobotics.feishu.cnwikiV7K4wCRHNiaSufk0Otcceqaen2c\替换掉的原表格备份\新表格\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="143">
   <si>
     <t>30-Pin Header</t>
   </si>
@@ -381,59 +381,119 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>PU，3.2K</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PU，4.7K</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>Primary Function Description</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>Logic Level</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Logic Level</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Function 0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Function 1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Function 2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Function 3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Direction 0/1/2/3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Primary Function Description</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Function 0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Function 1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Function 2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Function 3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Direction 0/1/2/3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PWM or GPIO</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPI Interface</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPI Interface</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPI Interface</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>Used as general-purpose GPIO</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>SPI Interface</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Logic Level</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>PWM or GPIO</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Function 0</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Function 1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Function 2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Function 3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Direction 0/1/2/3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>PPS GPS synchronization or GPIO</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>Used as general-purpose GPIO</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>I2C9 Interface</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>I2C9 Interface</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>I2C8 Interface</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>I2C8 Interface</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>1.8V output converted from VDD_3V3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Used as general-purpose GPIO</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -547,12 +607,33 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -561,15 +642,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1054,1107 +1126,1111 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.36328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="11.6328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.6328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.26953125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.453125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="34.90625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.26953125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.7265625" bestFit="1" customWidth="1"/>
-    <col min="17" max="19" width="11.6328125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.6328125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="19.26953125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.08984375" customWidth="1"/>
+    <col min="2" max="2" width="18.54296875" customWidth="1"/>
+    <col min="3" max="3" width="14.453125" customWidth="1"/>
+    <col min="4" max="4" width="17.6328125" customWidth="1"/>
+    <col min="5" max="5" width="9.26953125" customWidth="1"/>
+    <col min="6" max="6" width="12.08984375" customWidth="1"/>
+    <col min="7" max="7" width="11.90625" customWidth="1"/>
+    <col min="8" max="8" width="12.54296875" customWidth="1"/>
+    <col min="9" max="9" width="15" customWidth="1"/>
+    <col min="10" max="10" width="20.08984375" customWidth="1"/>
+    <col min="11" max="11" width="13.6328125" customWidth="1"/>
+    <col min="12" max="12" width="7.08984375" customWidth="1"/>
+    <col min="13" max="13" width="18.54296875" customWidth="1"/>
+    <col min="14" max="14" width="22.54296875" customWidth="1"/>
+    <col min="15" max="15" width="17.6328125" customWidth="1"/>
+    <col min="16" max="16" width="9.54296875" customWidth="1"/>
+    <col min="17" max="17" width="13.26953125" customWidth="1"/>
+    <col min="18" max="18" width="12.81640625" customWidth="1"/>
+    <col min="19" max="19" width="10.7265625" customWidth="1"/>
+    <col min="20" max="20" width="15" customWidth="1"/>
+    <col min="21" max="21" width="17" customWidth="1"/>
+    <col min="22" max="22" width="13.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:22" ht="16.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
+      <c r="T1" s="8"/>
+      <c r="U1" s="8"/>
+      <c r="V1" s="8"/>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:22" ht="39" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="C2" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="E2" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="F2" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="G2" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="H2" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="I2" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="J2" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="K2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="O2" s="2" t="s">
+      <c r="N2" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="O2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="P2" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="V2" s="3" t="s">
+      <c r="P2" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q2" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="R2" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="S2" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="T2" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="U2" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="V2" s="10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
+    <row r="3" spans="1:22" ht="26" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="D3" s="4" t="s">
+      <c r="C3" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" s="4" t="s">
+      <c r="H3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="4">
+      <c r="L3" s="2">
         <v>2</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="M3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="N3" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="O3" s="4" t="s">
+      <c r="N3" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="O3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P3" s="4" t="s">
+      <c r="P3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="Q3" s="4" t="s">
+      <c r="Q3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="R3" s="4" t="s">
+      <c r="R3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="S3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="T3" s="4" t="s">
+      <c r="S3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="T3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="U3" s="4" t="s">
+      <c r="U3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="V3" s="4" t="s">
+      <c r="V3" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
+    <row r="4" spans="1:22" ht="16.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="5" t="s">
+      <c r="D4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="L4" s="4">
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L4" s="2">
         <v>4</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="M4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="N4" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="O4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="P4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q4" s="5" t="s">
+      <c r="O4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="5"/>
-      <c r="U4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="V4" s="4" t="s">
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="V4" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
+    <row r="5" spans="1:22" ht="26" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
         <v>5</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="D5" s="6" t="s">
+      <c r="C5" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="I5" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="J5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="K5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="L5" s="4">
+      <c r="L5" s="2">
         <v>6</v>
       </c>
-      <c r="M5" s="4" t="s">
+      <c r="M5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="N5" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="O5" s="4" t="s">
+      <c r="N5" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="O5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="P5" s="4" t="s">
+      <c r="P5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="Q5" s="4" t="s">
+      <c r="Q5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="R5" s="4" t="s">
+      <c r="R5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S5" s="4" t="s">
+      <c r="S5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="T5" s="4" t="s">
+      <c r="T5" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="U5" s="4" t="s">
+      <c r="U5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="V5" s="4" t="s">
+      <c r="V5" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
+      <c r="A6" s="2">
         <v>7</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="D6" s="6" t="s">
+      <c r="C6" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G6" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="H6" s="6" t="s">
+      <c r="G6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="I6" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="J6" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="K6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="L6" s="4">
+      <c r="L6" s="2">
         <v>8</v>
       </c>
-      <c r="M6" s="4" t="s">
+      <c r="M6" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="N6" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="O6" s="4" t="s">
+      <c r="N6" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="O6" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="P6" s="4" t="s">
+      <c r="P6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="Q6" s="4" t="s">
+      <c r="Q6" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="R6" s="4" t="s">
+      <c r="R6" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="S6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="T6" s="4" t="s">
+      <c r="S6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="T6" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="U6" s="4" t="s">
+      <c r="U6" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="V6" s="4" t="s">
-        <v>19</v>
+      <c r="V6" s="2" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
-        <v>9</v>
-      </c>
-      <c r="B7" s="4" t="s">
+      <c r="A7" s="2">
+        <v>9</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="D7" s="6" t="s">
+      <c r="C7" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="G7" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="H7" s="6" t="s">
+      <c r="G7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="I7" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="J7" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="K7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="L7" s="4">
+      <c r="L7" s="2">
         <v>10</v>
       </c>
-      <c r="M7" s="4" t="s">
+      <c r="M7" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="N7" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="O7" s="4" t="s">
+      <c r="N7" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="O7" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="P7" s="4" t="s">
+      <c r="P7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="Q7" s="4" t="s">
+      <c r="Q7" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="R7" s="4" t="s">
+      <c r="R7" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="S7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="T7" s="4" t="s">
+      <c r="S7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="T7" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="U7" s="4" t="s">
+      <c r="U7" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="V7" s="4" t="s">
-        <v>19</v>
+      <c r="V7" s="6" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
+      <c r="A8" s="2">
         <v>11</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L8" s="2">
+        <v>12</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="S8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="T8" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="U8" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="V8" s="6" t="s">
         <v>116</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="L8" s="4">
-        <v>12</v>
-      </c>
-      <c r="M8" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="N8" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="O8" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="P8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q8" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="R8" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="S8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="T8" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="U8" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="V8" s="4" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
+      <c r="A9" s="2">
         <v>13</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L9" s="2">
+        <v>14</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="S9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="T9" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="U9" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="V9" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E9" s="4" t="s">
+    </row>
+    <row r="10" spans="1:22" ht="16.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>15</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="K9" s="4" t="s">
+      <c r="F10" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="K10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="L9" s="4">
-        <v>14</v>
-      </c>
-      <c r="M9" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="N9" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="O9" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="P9" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q9" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="R9" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="S9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="T9" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="U9" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="V9" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
-        <v>15</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="L10" s="4">
+      <c r="L10" s="2">
         <v>16</v>
       </c>
-      <c r="M10" s="4" t="s">
+      <c r="M10" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="N10" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="O10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="P10" s="4" t="s">
+      <c r="N10" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="P10" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="Q10" s="5" t="s">
+      <c r="Q10" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="R10" s="5"/>
-      <c r="S10" s="5"/>
-      <c r="T10" s="5"/>
-      <c r="U10" s="4" t="s">
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="V10" s="4" t="s">
+      <c r="V10" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
+      <c r="A11" s="2">
         <v>17</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="D11" s="6" t="s">
+      <c r="C11" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="G11" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I11" s="6" t="s">
+      <c r="G11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I11" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="J11" s="4" t="s">
+      <c r="J11" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="K11" s="4" t="s">
+      <c r="K11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="L11" s="4">
+      <c r="L11" s="2">
         <v>18</v>
       </c>
-      <c r="M11" s="4" t="s">
+      <c r="M11" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="N11" s="4" t="s">
+      <c r="N11" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="O11" s="4" t="s">
+      <c r="O11" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="P11" s="4" t="s">
+      <c r="P11" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="Q11" s="4" t="s">
+      <c r="Q11" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="R11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="S11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="T11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="U11" s="4" t="s">
+      <c r="R11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="S11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="T11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="U11" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="V11" s="4" t="s">
+      <c r="V11" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
+      <c r="A12" s="2">
         <v>19</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="D12" s="6" t="s">
+      <c r="C12" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="G12" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I12" s="6" t="s">
+      <c r="G12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I12" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="J12" s="4" t="s">
+      <c r="J12" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="K12" s="4" t="s">
+      <c r="K12" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="L12" s="4">
+      <c r="L12" s="2">
         <v>20</v>
       </c>
-      <c r="M12" s="4" t="s">
+      <c r="M12" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="N12" s="4" t="s">
+      <c r="N12" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="O12" s="4" t="s">
+      <c r="O12" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="P12" s="4" t="s">
+      <c r="P12" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="Q12" s="4" t="s">
+      <c r="Q12" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="R12" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="S12" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="T12" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="U12" s="4" t="s">
+      <c r="R12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="S12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="T12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="U12" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="V12" s="4" t="s">
+      <c r="V12" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
+      <c r="A13" s="2">
         <v>21</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="D13" s="7" t="s">
+      <c r="C13" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="G13" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I13" s="7" t="s">
+      <c r="G13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I13" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="J13" s="4" t="s">
+      <c r="J13" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="K13" s="4" t="s">
+      <c r="K13" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="L13" s="4">
+      <c r="L13" s="2">
         <v>22</v>
       </c>
-      <c r="M13" s="4" t="s">
+      <c r="M13" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="N13" s="4" t="s">
+      <c r="N13" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="O13" s="4" t="s">
+      <c r="O13" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="P13" s="4" t="s">
+      <c r="P13" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="Q13" s="4" t="s">
+      <c r="Q13" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="R13" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="S13" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="T13" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="U13" s="4" t="s">
+      <c r="R13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="S13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="T13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="U13" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="V13" s="4" t="s">
+      <c r="V13" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
+      <c r="A14" s="2">
         <v>23</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="D14" s="7" t="s">
+      <c r="C14" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F14" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="G14" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I14" s="7" t="s">
+      <c r="G14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I14" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="J14" s="4" t="s">
+      <c r="J14" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="K14" s="4" t="s">
+      <c r="K14" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="L14" s="4">
+      <c r="L14" s="2">
         <v>24</v>
       </c>
-      <c r="M14" s="4" t="s">
+      <c r="M14" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="N14" s="4" t="s">
+      <c r="N14" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="O14" s="4" t="s">
+      <c r="O14" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="P14" s="4" t="s">
+      <c r="P14" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="Q14" s="4" t="s">
+      <c r="Q14" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="R14" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="S14" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="T14" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="U14" s="4" t="s">
+      <c r="R14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="S14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="T14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="U14" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="V14" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" ht="16.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>25</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L15" s="2">
+        <v>26</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q15" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="R15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="S15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="T15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="U15" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="V14" s="4" t="s">
+      <c r="V15" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
-        <v>25</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="K15" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="L15" s="4">
-        <v>26</v>
-      </c>
-      <c r="M15" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="N15" s="4" t="s">
+    <row r="16" spans="1:22" ht="16.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>27</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L16" s="2">
+        <v>28</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="N16" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="O15" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="P15" s="4" t="s">
+      <c r="O16" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="P16" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="Q15" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="R15" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="S15" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="T15" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="U15" s="4" t="s">
+      <c r="Q16" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="R16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="S16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="T16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="U16" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="V15" s="4" t="s">
+      <c r="V16" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
-        <v>27</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C16" s="4" t="s">
+    <row r="17" spans="1:22" ht="16.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>29</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C17" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="D16" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="4" t="s">
+      <c r="D17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="K16" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="L16" s="4">
-        <v>28</v>
-      </c>
-      <c r="M16" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="N16" s="4" t="s">
+      <c r="K17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L17" s="2">
+        <v>30</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="N17" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="O16" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="P16" s="4" t="s">
+      <c r="O17" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="P17" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="Q16" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="R16" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="S16" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="T16" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="U16" s="4" t="s">
+      <c r="Q17" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="R17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="S17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="T17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="U17" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="V16" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
-        <v>29</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="K17" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="L17" s="4">
-        <v>30</v>
-      </c>
-      <c r="M17" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="N17" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="O17" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="P17" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q17" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="R17" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="S17" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="T17" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="U17" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="V17" s="4" t="s">
+      <c r="V17" s="2" t="s">
         <v>9</v>
       </c>
     </row>
